--- a/Azure/Azure.xlsx
+++ b/Azure/Azure.xlsx
@@ -1,48 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="31845" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +383,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +980,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.5" style="1" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Azure/Azure.xlsx
+++ b/Azure/Azure.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31845" windowHeight="17700"/>
+    <workbookView windowWidth="20445" windowHeight="15210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,7 +21,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,9 +31,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -45,37 +127,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -83,47 +135,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,47 +159,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,31 +189,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,145 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,8 +395,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,32 +434,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,117 +465,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,34 +614,13 @@
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Azure/Azure.xlsx
+++ b/Azure/Azure.xlsx
@@ -4,22 +4,104 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="15210"/>
+    <workbookView windowWidth="31845" windowHeight="17655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Azureポータルの使い方" sheetId="2" r:id="rId2"/>
+    <sheet name="仮想マシン(VM)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>1.ホーム画面</t>
+  </si>
+  <si>
+    <t>2.すべてのリソース</t>
+  </si>
+  <si>
+    <t>3.リソースグループ</t>
+  </si>
+  <si>
+    <t>4.仮想マシン</t>
+  </si>
+  <si>
+    <t>仮想マシン(Linux)を作成</t>
+  </si>
+  <si>
+    <t>URL :</t>
+  </si>
+  <si>
+    <t>https://portal.azure.com/#browse/Microsoft.Compute%2FVirtualMachines</t>
+  </si>
+  <si>
+    <t>仮想マシンの作成</t>
+  </si>
+  <si>
+    <t>サービス名+(誕生日+1)</t>
+  </si>
+  <si>
+    <t>ディスクの設定</t>
+  </si>
+  <si>
+    <t>OSディスクの種類がデフォだと高いやつになっている</t>
+  </si>
+  <si>
+    <t>ネットワークインターフェイス</t>
+  </si>
+  <si>
+    <t>念のためチェックしておく</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>作成中の様子</t>
+  </si>
+  <si>
+    <t>VMの様子</t>
+  </si>
+  <si>
+    <t>VMに接続する(VMがLinuxの時)</t>
+  </si>
+  <si>
+    <t>パブリックIPアドレスを取得する</t>
+  </si>
+  <si>
+    <t>PowerShellし下記を入力</t>
+  </si>
+  <si>
+    <t>ssh **ユーザ名**@パブリックIPアドレス</t>
+  </si>
+  <si>
+    <t>覚えてれば簡単</t>
+  </si>
+  <si>
+    <t>*ここでは</t>
+  </si>
+  <si>
+    <t>ssh Ayato@4.222.216.17</t>
+  </si>
+  <si>
+    <t>となる</t>
+  </si>
+  <si>
+    <t>VMに接続する(VMがWindowsの時)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -30,8 +112,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45,117 +241,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,13 +255,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,43 +265,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,139 +415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +456,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -388,15 +479,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,26 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -470,7 +532,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,150 +564,156 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -690,6 +778,604 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図形 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="381000"/>
+          <a:ext cx="14868525" cy="9763125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図形 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="10668000"/>
+          <a:ext cx="14982825" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図形 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="20955000"/>
+          <a:ext cx="14982825" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図形 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="31242000"/>
+          <a:ext cx="14982825" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図形 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="14982825" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図形 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="10801350"/>
+          <a:ext cx="7048500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図形 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="11144250"/>
+          <a:ext cx="7010400" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図形 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="11487150"/>
+          <a:ext cx="7038975" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図形 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="13030200"/>
+          <a:ext cx="7124700" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図形 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="15259050"/>
+          <a:ext cx="2705100" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図形 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="16287750"/>
+          <a:ext cx="7115175" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図形 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="18345150"/>
+          <a:ext cx="20574000" cy="13258800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図形 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="32061150"/>
+          <a:ext cx="15706725" cy="4257675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図形 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="37033200"/>
+          <a:ext cx="4048125" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -981,17 +1667,179 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="2.5" style="3" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B164"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customHeight="1" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:2">
+      <c r="B56" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="2:2">
+      <c r="B110" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="2:2">
+      <c r="B164" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:N228"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="14:14">
+      <c r="N71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="4:10">
+      <c r="D223" t="s">
+        <v>19</v>
+      </c>
+      <c r="J223" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8">
+      <c r="E225" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId2" display="https://portal.azure.com/#browse/Microsoft.Compute%2FVirtualMachines"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Azure/Azure.xlsx
+++ b/Azure/Azure.xlsx
@@ -1729,8 +1729,8 @@
   <sheetPr/>
   <dimension ref="B2:N228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Azure/Azure.xlsx
+++ b/Azure/Azure.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31845" windowHeight="17655" activeTab="2"/>
+    <workbookView windowWidth="31845" windowHeight="17700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Azureポータルの使い方" sheetId="2" r:id="rId2"/>
     <sheet name="仮想マシン(VM)" sheetId="3" r:id="rId3"/>
+    <sheet name="Azure Storage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>1.ホーム画面</t>
   </si>
@@ -91,6 +92,27 @@
   </si>
   <si>
     <t>VMに接続する(VMがWindowsの時)</t>
+  </si>
+  <si>
+    <t>https://portal.azure.com/#browse/Microsoft.Storage%2FStorageAccounts</t>
+  </si>
+  <si>
+    <t>ストレージアカウントを作成する</t>
+  </si>
+  <si>
+    <t>パフォーマンスや詳細などで安いやつに変更する</t>
+  </si>
+  <si>
+    <t>Azure BLOBストレージとは</t>
+  </si>
+  <si>
+    <t>Azure BLOBストレージ（Binary Large Object Storage）</t>
+  </si>
+  <si>
+    <t>Azureのオブジェクトストレージサービスで、大量の非構造化データ（画像、動画、ログ、バックアップなど）を保存・管理できるクラウドサービス</t>
+  </si>
+  <si>
+    <t>S3みたいな感じ？</t>
   </si>
 </sst>
 </file>
@@ -98,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,14 +143,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,8 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,31 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +193,13 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,9 +218,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,13 +242,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +256,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,181 +287,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +505,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,6 +555,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,35 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,7 +586,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,16 +595,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,118 +613,118 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1687,7 +1709,7 @@
   <sheetPr/>
   <dimension ref="B2:B164"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A124" workbookViewId="0">
       <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
@@ -1729,7 +1751,7 @@
   <sheetPr/>
   <dimension ref="B2:N228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A109" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1842,4 +1864,54 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:Q9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>